--- a/Trachops_MunozRomo_STRI.xlsx
+++ b/Trachops_MunozRomo_STRI.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marianamunoz-romo/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EC8F094-1871-264B-A682-4A52C9F0FD78}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94B54F4B-D6AD-4149-9F23-DC94498612BB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16320" activeTab="1" xr2:uid="{6875F884-B159-5A49-9674-37A3D8C1ECF3}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16320" xr2:uid="{6875F884-B159-5A49-9674-37A3D8C1ECF3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -560,7 +560,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06C57215-8AA7-1846-91B8-D0D8A4480431}">
   <dimension ref="A1:AZ543"/>
   <sheetViews>
-    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -29229,7 +29229,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A00FC186-7633-4E40-BACE-41BDA96022A8}">
   <dimension ref="A2:G18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0"/>
+    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
